--- a/biology/Virologie/Acrodermatite_papuleuse_infantile_de_Gianotti-Crosti/Acrodermatite_papuleuse_infantile_de_Gianotti-Crosti.xlsx
+++ b/biology/Virologie/Acrodermatite_papuleuse_infantile_de_Gianotti-Crosti/Acrodermatite_papuleuse_infantile_de_Gianotti-Crosti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’acrodermatite papuleuse infantile ou syndrome de Gianotti-Crosti est une maladie bénigne de la peau, dont la cause est virale et qui touche essentiellement les jeunes enfants (de 1 à 5 ans).
 </t>
@@ -511,10 +523,12 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une éruption d'apparition rapide de petites papules roses de 5 à 10 millimètres, d'abord sur les membres, puis sur le visage et le tronc[1].
-Ces papules parfois confluentes s'accompagnent d'adénopathies[1],[2] et peuvent se confondre avec un purpura au niveau des jambes (par extravasation sanguine).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une éruption d'apparition rapide de petites papules roses de 5 à 10 millimètres, d'abord sur les membres, puis sur le visage et le tronc.
+Ces papules parfois confluentes s'accompagnent d'adénopathies, et peuvent se confondre avec un purpura au niveau des jambes (par extravasation sanguine).
 </t>
         </is>
       </c>
@@ -543,17 +557,19 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La cause est actuellement indéterminée : contamination virale.
 Les virus impliqués peuvent être :
-virus d'Epstein-Barr de la mononucléose infectieuse (MNI)[2],[3] — cause la plus fréquente ;
-cytomégalovirus (CMV)[2] ;
+virus d'Epstein-Barr de la mononucléose infectieuse (MNI), — cause la plus fréquente ;
+cytomégalovirus (CMV) ;
 virus Coxsackie A16 ;
 echovirus 8 ;
-adénovirus 1 et 2[4] ;
+adénovirus 1 et 2 ;
 virus syncytial respiratoire ;
-virus de l’hépatite B[2] ;
+virus de l’hépatite B ;
 virus de l’hépatite A.</t>
         </is>
       </c>
@@ -582,11 +598,13 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On peut retrouver :
-une splénomégalie (augmentation de volume de la rate)[2]
-une hépatomégalie (augmentation de volume du foie)[2]
+une splénomégalie (augmentation de volume de la rate)
+une hépatomégalie (augmentation de volume du foie)
 une diarrhée
 une altération modérée de l'état général, avec asthénie, anorexie passagère.</t>
         </is>
@@ -616,7 +634,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle guérit spontanément au bout de 1 à 6 semaines.
 </t>
